--- a/_site/Data/ClimateChange.xlsx
+++ b/_site/Data/ClimateChange.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhUHIfaDmXkmQM8hp7Jo5NeA3k7Sw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgw6Udg+DK1U4kQJwjGm/+ZwyrS9Q=="/>
     </ext>
   </extLst>
 </workbook>
@@ -132,7 +132,7 @@
     <t>Ideally, what do you see your role and responsibility being in regard to supporting your child(ren) through climate change?</t>
   </si>
   <si>
-    <t>[Free Response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>Has your family been exposed to an extreme weather event? Select all that apply.</t>
@@ -1312,7 +1312,7 @@
       <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="1"/>
@@ -1550,7 +1550,7 @@
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="1"/>
